--- a/spec/test_data/書き込み.xlsx
+++ b/spec/test_data/書き込み.xlsx
@@ -386,8 +386,8 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row x14ac:dyDescent="0.15" r="1" spans="1:3">
-      <c r="A1">
-        <v>999</v>
+      <c r="A1" t="b">
+        <v>0</v>
       </c>
       <c r="C1">
         <v>2</v>

--- a/spec/test_data/書き込み.xlsx
+++ b/spec/test_data/書き込み.xlsx
@@ -376,7 +376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -385,15 +385,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.15" r="1" spans="1:3">
-      <c r="A1" t="b">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="C1">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.15" r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -403,7 +403,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/spec/test_data/書き込み.xlsx
+++ b/spec/test_data/書き込み.xlsx
@@ -23,6 +23,34 @@
   </si>
   <si>
     <t>かきくけこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -376,7 +404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -385,15 +413,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1</v>
+    <row x14ac:dyDescent="0.15" r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
       </c>
       <c r="C1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row x14ac:dyDescent="0.15" r="3" spans="1:3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -403,7 +431,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/spec/test_data/書き込み.xlsx
+++ b/spec/test_data/書き込み.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11370" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="11370" windowWidth="18195" xWindow="480" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="いろいろなデータ" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" name="Sheet1" sheetId="1"/>
+    <sheet r:id="rId2" name="Sheet2" sheetId="2"/>
+    <sheet r:id="rId3" name="いろいろなデータ" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -23,6 +23,370 @@
   </si>
   <si>
     <t>かきくけこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcde</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -415,7 +779,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.15" r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -468,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -477,19 +841,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="14.25"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="17.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1.1000000000000001</v>
+    <row x14ac:dyDescent="0.15" r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>98</v>
       </c>
       <c r="B1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row x14ac:dyDescent="0.15" r="2" spans="1:2">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -497,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row x14ac:dyDescent="0.15" r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +871,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup r:id="rId1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/spec/test_data/書き込み.xlsx
+++ b/spec/test_data/書き込み.xlsx
@@ -23,254 +23,6 @@
   </si>
   <si>
     <t>かきくけこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abcde</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -779,7 +531,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.15" r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -847,7 +599,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.15" r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>2.2000000000000002</v>
